--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Type_06_06.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Type_06_06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9D0F5CA-7AE2-4298-A296-1640EDC9DB65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183DA579-D524-4FCE-84D3-7A0CE00AF779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -855,10 +855,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -885,7 +885,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -923,7 +923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -943,6 +943,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1055,7 +1093,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="509668640"/>
         <c:axId val="509668968"/>
       </c:barChart>
@@ -1097,7 +1134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668968"/>
@@ -1153,7 +1190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668640"/>
@@ -1192,7 +1229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1229,7 +1266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5213,7 +5250,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5362,7 +5399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5664,7 +5701,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -5746,7 +5783,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
